--- a/public/web-resource/files-upload/template-req-waybill.xlsx
+++ b/public/web-resource/files-upload/template-req-waybill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tms-backend\public\web-resource\files-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B559735-A6DE-4403-A74E-3C641371505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110B16D-FE87-4D84-8D4F-869AF8A19021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template-req-waybill" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>WAYBILL_NUMBER</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Penjaringan</t>
+  </si>
+  <si>
+    <t>TOTAL_VOLUME</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,10 +665,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,15 +1025,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AE1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,86 +1055,89 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1140,58 +1156,58 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>123456</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>81218480049</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>44</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>46</v>
       </c>
     </row>

--- a/public/web-resource/files-upload/template-req-waybill.xlsx
+++ b/public/web-resource/files-upload/template-req-waybill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tms-backend\public\web-resource\files-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110B16D-FE87-4D84-8D4F-869AF8A19021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A9390-E4A7-49BD-BB1A-CEA52FE14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
-  <si>
-    <t>WAYBILL_NUMBER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>REFERENCE_NUMBER</t>
   </si>
@@ -82,27 +79,6 @@
     <t>SENDER_PIC</t>
   </si>
   <si>
-    <t>RECEPIENT_NAME</t>
-  </si>
-  <si>
-    <t>RECEPIENT_ADDRESS</t>
-  </si>
-  <si>
-    <t>RECEPIENT_POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>RECEPIENT_PHONE</t>
-  </si>
-  <si>
-    <t>RECEPIENT_FAX</t>
-  </si>
-  <si>
-    <t>RECEPIENT_EMAIL</t>
-  </si>
-  <si>
-    <t>RECEPIENT_PIC</t>
-  </si>
-  <si>
     <t>PAYMENT_TYPE</t>
   </si>
   <si>
@@ -118,9 +94,6 @@
     <t>DESTINATION_SUBDISTRICT</t>
   </si>
   <si>
-    <t>DTX00100000000830436</t>
-  </si>
-  <si>
     <t>KIYO120923-E1</t>
   </si>
   <si>
@@ -164,6 +137,27 @@
   </si>
   <si>
     <t>TOTAL_VOLUME</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NAME</t>
+  </si>
+  <si>
+    <t>RECIPIENT_ADDRESS</t>
+  </si>
+  <si>
+    <t>RECIPIENT_POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>RECIPIENT_PHONE</t>
+  </si>
+  <si>
+    <t>RECIPIENT_FAX</t>
+  </si>
+  <si>
+    <t>RECIPIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>RECIPIENT_PIC</t>
   </si>
 </sst>
 </file>
@@ -1025,22 +1019,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="80.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1052,19 +1049,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
@@ -1073,13 +1070,13 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
@@ -1097,118 +1094,112 @@
       <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>123456</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>81218480049</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AE2" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2">
-        <v>123456</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>81218480049</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/web-resource/files-upload/template-req-waybill.xlsx
+++ b/public/web-resource/files-upload/template-req-waybill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tms-backend\public\web-resource\files-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30A9390-E4A7-49BD-BB1A-CEA52FE14B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11804F9F-55B2-4A8B-AA7E-80C1FEF282B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,12 +1021,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="80.1796875" bestFit="1" customWidth="1"/>
@@ -1034,7 +1035,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">

--- a/public/web-resource/files-upload/template-req-waybill.xlsx
+++ b/public/web-resource/files-upload/template-req-waybill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tms-backend\public\web-resource\files-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11804F9F-55B2-4A8B-AA7E-80C1FEF282B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569F988B-72FB-4761-88F8-4587750551FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template-req-waybill" sheetId="1" r:id="rId1"/>
@@ -1021,14 +1021,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="80.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.1796875" bestFit="1" customWidth="1"/>
@@ -1077,13 +1078,13 @@
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R1" t="s">
